--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_26.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09529211571185479</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2125874125874126</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3', 'G:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(62.53, 68.09)]</t>
+          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(39.093, 43.498)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:33.310000', '0:00:47.630000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.080000', '0:00:21')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88), (14.0, 16.38)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.66, 8.22)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(50.82, 64.98)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1182170542635659</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(63.251, 70.247)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07229872881355932</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['A/5', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.6, 17.16)]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:19.713866', '0:01:24.787426')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:05.370181', '0:00:09.236303')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2645161290322581</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'E']]</t>
+          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.724104, 47.769818)]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(15.027029, 22.457415)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:03:56.780000', '0:04:09.140000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:03:45.320000', '0:03:50.460000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3145161290322581</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(134.84, 137.48), (132.3, 136.56)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.963197, 34.290634), (28.450816, 36.229501)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(63.08, 71.12)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2238095238095238</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(264.615, 275.8)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1145833333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.74, 10.18)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04735872235872236</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (22.1, 26.2)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38), (164.26, 168.06)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.54, 11.42)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09339080459770115</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.268067, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.537346, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
